--- a/docs/Queries_CCG_Derivation.xlsx
+++ b/docs/Queries_CCG_Derivation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CCG" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="67">
   <si>
     <t xml:space="preserve">What</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">(S\NP)\T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\T)</t>
   </si>
   <si>
     <t xml:space="preserve">Tasks</t>
@@ -1247,7 +1250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1269,6 +1272,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1361,10 +1368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:R75"/>
+  <dimension ref="B2:R82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1986,8 +1993,30 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="F7:I7"/>
@@ -2025,6 +2054,7 @@
     <mergeCell ref="F73:I73"/>
     <mergeCell ref="B74:E74"/>
     <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2043,8 +2073,8 @@
   </sheetPr>
   <dimension ref="B1:B33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2055,166 +2085,166 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="6" t="s">
-        <v>34</v>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="s">
-        <v>60</v>
+      <c r="B29" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2245,8 +2275,8 @@
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="259.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="8" t="s">
-        <v>65</v>
+      <c r="D5" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Queries_CCG_Derivation.xlsx
+++ b/docs/Queries_CCG_Derivation.xlsx
@@ -5,12 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="CCG" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Queries" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Events - CCG" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Queries" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Tasks - CCG" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="157">
+  <si>
+    <t xml:space="preserve">events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">participating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP\NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S/VB)\NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S/VB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">robot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP/NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(NP\N)\NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(NP\N)</t>
+  </si>
   <si>
     <t xml:space="preserve">What</t>
   </si>
@@ -30,196 +87,525 @@
     <t xml:space="preserve">are</t>
   </si>
   <si>
-    <t xml:space="preserve">all </t>
+    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">the</t>
   </si>
   <si>
-    <t xml:space="preserve">tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assigned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to</t>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP\Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(NP/NP)\NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzzy Search string – Subject , Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event subtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are all the tasks assigned to me ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are all the events that I am participating ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are all the tasks assigned by me ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all the events that I am participating / I am a speaker / Created by me / I am organizing/ volunteering?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker/Creater/Organizer/Volunteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events I am a participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events organized by me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participating/organizing/speaking events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are all the tasks that are overdue?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what are all the events happening near to me ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are all the overdue tasks?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all the events that  I am a speaking ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overdue tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events happening today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is task #353179?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events scheduled for vaishnavi by onboarding manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task#353179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker Or Creater Or Organizer Or Volunteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the planned date of task#353179?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent training in java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the planned start date of task#353179?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule event for new joiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there any issues assigned with the tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who is the SPOC for Java training in India to vaishnavi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks assigned.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">List all the Java related events between 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of March to 4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of March.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> March </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> March</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">assigned tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all the Java related events happening this week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current week start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current week End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When is the next celebration scheduled ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not sure these are related to events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks overdue?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When is the next birthday celebration ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efforts spent on the task#1234?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is celebrating the next birthday?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efforts spent on task#1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what are all the cultural / work anniversary events scheduled this month?. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultural / Work Anniversary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there any risks assigned with the tasks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle workshops in chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of tasks pending for me ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what are all the meetings I have today ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting</t>
   </si>
   <si>
     <t xml:space="preserve">me</t>
   </si>
   <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\Q)/NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP/NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(NP\T)/NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP\T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S\Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP/T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\Q)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overdue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efforts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\NP)/NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\NP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP\Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP\NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">((S\NP)\NP)/NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\NP)\NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S\NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\NP)\T)/NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\NP)\T)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S\T)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are all the tasks assigned to me ?.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are all the tasks assigned by me ?.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are all the tasks that are overdue?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are all the overdue tasks?.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overdue tasks?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is task #353179?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task#353179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the planned date of task#353179?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the planned start date of task#353179?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there any issues assigned with the tasks?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tasks assigned.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assigned tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tasks overdue?.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efforts spent on the task#1234?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efforts spent on task#1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there any risks assigned with the tasks?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of tasks pending for me ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of tasks that are open / In-progress / Closed ?</t>
   </si>
   <si>
+    <t xml:space="preserve">What time I am free today?.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open tasks?</t>
   </si>
   <si>
+    <t xml:space="preserve">what are all the upcoming events this week?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommorow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of week</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task criticality wise status ?.</t>
   </si>
   <si>
+    <t xml:space="preserve">Who is having the next birthday?.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Categories of open task</t>
   </si>
   <si>
+    <t xml:space="preserve">Whose birthday is coming up?.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task that require my immediate attention?.</t>
   </si>
   <si>
+    <t xml:space="preserve">What are all the recommended events for me ?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My recommendation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status of all my tasks?</t>
   </si>
   <si>
+    <t xml:space="preserve">recommended events ?.</t>
+  </si>
+  <si>
     <t xml:space="preserve">List 5 tasks?</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">List all the upcoming account / project activities between 15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> march to 14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> April ?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">account/Project</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> March</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> April</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">task count by category</t>
   </si>
   <si>
     <t xml:space="preserve">List the top players completed the tasks?</t>
   </si>
   <si>
+    <t xml:space="preserve">Organising committee for xyz event</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tasks that need help?</t>
   </si>
   <si>
+    <t xml:space="preserve">events in chennai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open tasks similar to my completed tasks?.</t>
   </si>
   <si>
+    <t xml:space="preserve">D&amp;I events</t>
+  </si>
+  <si>
     <t xml:space="preserve">When is this task #353179 completed ?.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hub events</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summary of the task #357173?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibelong events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">events for my project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOM for xyz meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my pending events </t>
   </si>
   <si>
     <r>
@@ -1076,6 +1462,81 @@
   )
 }</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">all </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\Q)/NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(NP\T)/NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP\T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S\Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP/T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\Q)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overdue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efforts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\NP)/NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\NP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((S\NP)\NP)/NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\NP)\NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S\NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\NP)\T)/NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\NP)\T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S\T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(NP/T)</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1108,6 +1569,32 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1189,7 +1676,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,7 +1686,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1250,25 +1743,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1283,12 +1764,40 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1325,7 +1834,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1336,7 +1845,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1368,10 +1877,899 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B5:I34"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:F34"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:N40"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="40.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="E19:E21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="259.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:R82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1383,640 +2781,656 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="4" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="I70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="G72" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="F73" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="F7:I7"/>
@@ -2055,231 +3469,8 @@
     <mergeCell ref="B74:E74"/>
     <mergeCell ref="B75:I75"/>
     <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:B33"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="5" customFormat="false" ht="259.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
